--- a/pre-processing/duplicate_pairs.xlsx
+++ b/pre-processing/duplicate_pairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="181">
   <si>
     <t>path_1</t>
   </si>
@@ -25,526 +25,538 @@
     <t>similarity</t>
   </si>
   <si>
-    <t>images_png/laptop/273239856.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/278454662.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/277063012.png</t>
-  </si>
-  <si>
-    <t>images_png/camera/106641569.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/275019168.png</t>
-  </si>
-  <si>
-    <t>images_png/camera/212934661.png</t>
-  </si>
-  <si>
-    <t>images_png/camera/274879959.png</t>
-  </si>
-  <si>
-    <t>images_png/camera/270977170.png</t>
-  </si>
-  <si>
-    <t>images_png/camera/270977143.png</t>
-  </si>
-  <si>
-    <t>images_png/camera/262792654.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/275270303.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/225934432.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/278076593.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/275655645.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/275854376.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/277311630.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/275655333.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/277912715.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/277575279.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/277944334.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/276860956.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/276274790.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/275244939.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/214863390.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/275603123.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/275803796.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/276861471.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/276032905.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/275249107.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/277651890.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/275249046.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/275269812.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/275805126.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/277988890.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/274843323.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/275020992.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/278138258.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/278304793.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/277972475.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/278304363.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/274877090.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/252566338.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/278078281.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/276366329.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/274843293.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/273647623.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/276110349.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/181927774.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/278226504.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/277175913.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/278304303.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/276109904.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/274876803.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/277971781.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/277446629.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/277976029.png</t>
-  </si>
-  <si>
-    <t>images_png/speaker/241638318.png</t>
-  </si>
-  <si>
-    <t>images_png/camera/274069561.png</t>
-  </si>
-  <si>
-    <t>images_png/speaker/241639907.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/275721993.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/277360579.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/278227010.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/276944868.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/275852844.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/225363237.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/276362981.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/270975124.png</t>
-  </si>
-  <si>
-    <t>images_png/camera/203898270.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/276802409.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/278226869.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/276281988.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/277737595.png</t>
-  </si>
-  <si>
-    <t>images_png/speaker/276075466.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/274775419.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/275850110.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/248237801.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/276365829.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/277672516.png</t>
-  </si>
-  <si>
-    <t>images_png/speaker/76062253.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/278229740.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/277704510.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/198437064.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/276448920.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/274870762.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/278078311.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/278077327.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/275244561.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/184059211.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/274843351.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/277777809.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/277512620.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/274419342.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/273990229.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/277737629.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/276925932.png</t>
-  </si>
-  <si>
-    <t>images_png/camera/194130039.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/278071899.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/276366080.png</t>
-  </si>
-  <si>
-    <t>images_png/speaker/73204703.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/278078298.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/275382529.png</t>
-  </si>
-  <si>
-    <t>images_png/camera/277381589.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/274405521.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/275516477.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/276366073.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/201067649.png</t>
-  </si>
-  <si>
-    <t>images_png/camera/194067352.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/276944892.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/275382480.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/277462473.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/277429931.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/274870710.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/275646608.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/205305968.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/277065642.png</t>
-  </si>
-  <si>
-    <t>images_png/camera/57071523.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/275020293.png</t>
-  </si>
-  <si>
-    <t>images_png/camera/269944956.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/225940640.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/278078315.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/275603494.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/275854386.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/276062770.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/277912717.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/277575237.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/276931435.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/214863343.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/275245427.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/276861683.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/276921311.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/277646748.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/277988926.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/278138206.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/277972387.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/276366221.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/273634022.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/276110276.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/11251770.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/278226626.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/277811118.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/276110023.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/274870404.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/277971948.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/277912853.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/277989480.png</t>
-  </si>
-  <si>
-    <t>images_png/speaker/241635069.png</t>
-  </si>
-  <si>
-    <t>images_png/camera/222452404.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/276639232.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/92621126.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/276319244.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/271128271.png</t>
-  </si>
-  <si>
-    <t>images_png/camera/154259057.png</t>
-  </si>
-  <si>
-    <t>images_png/speaker/276075423.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/207872108.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/277361271.png</t>
-  </si>
-  <si>
-    <t>images_png/speaker/57523356.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/276539826.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/278077419.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/276621654.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/197214029.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/277707642.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/277512611.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/275381290.png</t>
-  </si>
-  <si>
-    <t>images_png/camera/194121937.png</t>
-  </si>
-  <si>
-    <t>images_png/speaker/21430781.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/277451016.png</t>
-  </si>
-  <si>
-    <t>images_png/camera/274184765.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/277361314.png</t>
-  </si>
-  <si>
-    <t>images_png/phone/252586291.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/277991140.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/272828266.png</t>
-  </si>
-  <si>
-    <t>images_png/laptop/277912740.png</t>
-  </si>
-  <si>
-    <t>images_png/tv/276268195.png</t>
-  </si>
-  <si>
-    <t>images_png/camera/263596152.png</t>
+    <t>images_png/laptop/laptop_225940640.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_274879959.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_212934661.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_106641569.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275020293.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_142796515.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_205305968.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_273239856.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275270303.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_262792654.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_270977170.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_270977143.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277063012.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_278078315.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_275854376.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275603494.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277311630.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_277912715.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_274843293.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_277575237.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_276931435.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277944334.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276274790.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275244939.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_214863343.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275655645.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275803796.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_276861683.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_276032905.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275249107.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277651890.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275269812.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275249046.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275805126.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_277988890.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_274843323.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275019168.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_278138258.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_278304303.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_278304363.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_277972475.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_278078281.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_274877090.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_278227010.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_276366329.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_252566338.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_274843351.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276110349.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_181927774.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_273634022.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277175913.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_278226504.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_274876803.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_278226626.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_277971781.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276109904.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_277912853.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_241638318.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_277976029.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_241639907.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_274069561.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_278226869.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_275721993.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277360579.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_274870762.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_276319244.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_225363237.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_203898270.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276944868.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276802409.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_270975124.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_207872108.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_276075466.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_274728425.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276281988.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_275852844.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_276365829.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_274775419.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277704510.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_76062253.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_275850110.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277737595.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_278229740.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_277361271.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_198437064.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276448920.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_278077327.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_278078298.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275655333.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_184059211.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_278071899.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277777809.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275244561.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_275381290.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277646748.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277512620.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_273990229.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277737629.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_277381589.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_274184765.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_278078311.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_275382529.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_194130039.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_73204703.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_278076593.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_274405521.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_277446629.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_201067649.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_275516477.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_274419342.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_277462473.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_277991140.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_194067352.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276944892.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_273474185.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_276366080.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275646608.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_225934432.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_57071523.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_154259057.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_278454662.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_269944956.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277065642.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_275854386.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276062770.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_277912717.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_277575279.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_276860956.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_214863390.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275603123.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275245427.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_276861471.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_276921311.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_277988926.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_275020992.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_278138206.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_278304793.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_277972387.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_276366221.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276110276.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_11251770.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_273647623.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277811118.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_274870404.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_277971948.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276110023.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_241635069.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_277989480.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_222452404.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_276362981.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_92621126.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276925932.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_271128271.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276639232.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_248237801.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_276075423.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_187036472.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_57523356.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_275382480.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_277672516.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_276539826.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_278077419.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_197214029.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_276621654.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277707642.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_277512611.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_272178556.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_194121937.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_277451016.png</t>
+  </si>
+  <si>
+    <t>images_png/speaker/speaker_21430781.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_276366073.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_277361314.png</t>
+  </si>
+  <si>
+    <t>images_png/phone/phone_252586291.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_277912740.png</t>
+  </si>
+  <si>
+    <t>images_png/tv/tv_277429931.png</t>
+  </si>
+  <si>
+    <t>images_png/laptop/laptop_272828266.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_273644429.png</t>
+  </si>
+  <si>
+    <t>images_png/camera/camera_263596152.png</t>
   </si>
 </sst>
 </file>
@@ -902,7 +914,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C228"/>
+  <dimension ref="A1:C226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -924,10 +936,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C2">
-        <v>1.000000476837158</v>
+        <v>1.000000238418579</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -935,21 +947,21 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3">
-        <v>1.000000476837158</v>
+        <v>1.000000238418579</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="C4">
-        <v>1.000000476837158</v>
+        <v>1.000000238418579</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -957,10 +969,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>1.000000476837158</v>
+        <v>1.000000238418579</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -968,10 +980,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C6">
-        <v>1.000000476837158</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -979,10 +991,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="C7">
-        <v>1.000000357627869</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -990,10 +1002,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="C8">
-        <v>1.000000238418579</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1001,32 +1013,32 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="C9">
-        <v>1.000000238418579</v>
+        <v>0.9999999403953552</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>123</v>
       </c>
       <c r="C10">
-        <v>1.000000238418579</v>
+        <v>0.9999999403953552</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
       <c r="C11">
-        <v>1.00000011920929</v>
+        <v>0.9999999403953552</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1034,10 +1046,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="C12">
-        <v>1.00000011920929</v>
+        <v>0.9999998211860657</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1045,21 +1057,21 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>1.00000011920929</v>
+        <v>0.9999995827674866</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>124</v>
       </c>
       <c r="C14">
-        <v>1.00000011920929</v>
+        <v>0.9999995827674866</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1067,40 +1079,40 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>1.00000011920929</v>
+        <v>0.9999995827674866</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C16">
-        <v>1.00000011920929</v>
+        <v>0.9999995827674866</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>125</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>0.9999995827674866</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C18">
         <v>0.9999995827674866</v>
@@ -1108,46 +1120,46 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="C19">
-        <v>0.9998470544815063</v>
+        <v>0.9999995827674866</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C20">
-        <v>0.9997333288192749</v>
+        <v>0.9998558163642883</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C21">
-        <v>0.9997333288192749</v>
+        <v>0.9997093677520752</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="C22">
-        <v>0.999715268611908</v>
+        <v>0.9997007250785828</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1155,10 +1167,10 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>11</v>
       </c>
       <c r="C23">
-        <v>0.9996885061264038</v>
+        <v>0.9997007250785828</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1166,10 +1178,10 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="C24">
-        <v>0.9994333982467651</v>
+        <v>0.9996675252914429</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1177,10 +1189,10 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C25">
-        <v>0.9993340969085693</v>
+        <v>0.999426007270813</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1188,10 +1200,10 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="C26">
-        <v>0.9992834329605103</v>
+        <v>0.9994150400161743</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1199,10 +1211,10 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="C27">
-        <v>0.9990766048431396</v>
+        <v>0.9992569088935852</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1210,10 +1222,10 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C28">
-        <v>0.9990147352218628</v>
+        <v>0.9990409016609192</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1221,10 +1233,10 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C29">
-        <v>0.9989083409309387</v>
+        <v>0.9989650845527649</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1232,10 +1244,10 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="C30">
-        <v>0.9987031221389771</v>
+        <v>0.9989566802978516</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1243,54 +1255,54 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="C31">
-        <v>0.9986725449562073</v>
+        <v>0.9987581372261047</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="C32">
-        <v>0.9982569813728333</v>
+        <v>0.9986765384674072</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>27</v>
+        <v>132</v>
       </c>
       <c r="C33">
-        <v>0.9982569813728333</v>
+        <v>0.9983251690864563</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="C34">
-        <v>0.9978812336921692</v>
+        <v>0.9983251690864563</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C35">
-        <v>0.9976550936698914</v>
+        <v>0.9980577826499939</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1298,10 +1310,10 @@
         <v>29</v>
       </c>
       <c r="B36" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C36">
-        <v>0.9967614412307739</v>
+        <v>0.9976329207420349</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1309,10 +1321,10 @@
         <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C37">
-        <v>0.9966937303543091</v>
+        <v>0.9966537356376648</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1320,10 +1332,10 @@
         <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C38">
-        <v>0.9958413243293762</v>
+        <v>0.9963845014572144</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1334,216 +1346,216 @@
         <v>133</v>
       </c>
       <c r="C39">
-        <v>0.9953592419624329</v>
+        <v>0.9954777359962463</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B40" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="C40">
-        <v>0.9952854514122009</v>
+        <v>0.9954197406768799</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C41">
-        <v>0.9950875043869019</v>
+        <v>0.9948924779891968</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C42">
-        <v>0.9949221611022949</v>
+        <v>0.9948163032531738</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C43">
-        <v>0.9948127269744873</v>
+        <v>0.9947893023490906</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
         <v>34</v>
       </c>
       <c r="C44">
-        <v>0.9940445423126221</v>
+        <v>0.9947234392166138</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B45" t="s">
         <v>34</v>
       </c>
       <c r="C45">
-        <v>0.9940445423126221</v>
+        <v>0.9947234392166138</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="C46">
-        <v>0.993525505065918</v>
+        <v>0.9944561123847961</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" t="s">
         <v>34</v>
       </c>
-      <c r="B47" t="s">
-        <v>123</v>
-      </c>
       <c r="C47">
-        <v>0.9932336807250977</v>
+        <v>0.9939885139465332</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" t="s">
         <v>35</v>
       </c>
-      <c r="B48" t="s">
-        <v>130</v>
-      </c>
       <c r="C48">
-        <v>0.9903907775878906</v>
+        <v>0.9933280944824219</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
       <c r="C49">
-        <v>0.9899891018867493</v>
+        <v>0.9901629090309143</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C50">
-        <v>0.9896952509880066</v>
+        <v>0.9896427989006042</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C51">
-        <v>0.9895257353782654</v>
+        <v>0.9895156025886536</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="C52">
-        <v>0.9890596866607666</v>
+        <v>0.9892751574516296</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C53">
-        <v>0.9888429641723633</v>
+        <v>0.9889339804649353</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C54">
-        <v>0.986932635307312</v>
+        <v>0.9887574911117554</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B55" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="C55">
-        <v>0.986932635307312</v>
+        <v>0.9886916279792786</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B56" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="C56">
-        <v>0.9862420558929443</v>
+        <v>0.9886916279792786</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B57" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C57">
-        <v>0.9854855537414551</v>
+        <v>0.9858878254890442</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C58">
-        <v>0.9851532578468323</v>
+        <v>0.9854063391685486</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1551,32 +1563,32 @@
         <v>41</v>
       </c>
       <c r="B59" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C59">
-        <v>0.9831595420837402</v>
+        <v>0.984649121761322</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" t="s">
         <v>42</v>
       </c>
-      <c r="B60" t="s">
-        <v>53</v>
-      </c>
       <c r="C60">
-        <v>0.9824010133743286</v>
+        <v>0.9828033447265625</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>139</v>
       </c>
       <c r="C61">
-        <v>0.982114315032959</v>
+        <v>0.9826372861862183</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1584,10 +1596,10 @@
         <v>43</v>
       </c>
       <c r="B62" t="s">
-        <v>55</v>
+        <v>140</v>
       </c>
       <c r="C62">
-        <v>0.9794538021087646</v>
+        <v>0.9808639883995056</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1595,10 +1607,10 @@
         <v>44</v>
       </c>
       <c r="B63" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="C63">
-        <v>0.9793408513069153</v>
+        <v>0.9802747368812561</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1606,43 +1618,43 @@
         <v>44</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="C64">
-        <v>0.9791634082794189</v>
+        <v>0.980124831199646</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B65" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C65">
-        <v>0.9787881374359131</v>
+        <v>0.9777880907058716</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B66" t="s">
-        <v>122</v>
+        <v>42</v>
       </c>
       <c r="C66">
-        <v>0.9787563681602478</v>
+        <v>0.9775158166885376</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="C67">
-        <v>0.9779366254806519</v>
+        <v>0.9775102138519287</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1650,54 +1662,54 @@
         <v>47</v>
       </c>
       <c r="B68" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="C68">
-        <v>0.9773745536804199</v>
+        <v>0.9771273136138916</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B69" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C69">
-        <v>0.977289080619812</v>
+        <v>0.9771192669868469</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="C70">
-        <v>0.9771469235420227</v>
+        <v>0.9767483472824097</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B71" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="C71">
-        <v>0.9771175384521484</v>
+        <v>0.976639449596405</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B72" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C72">
-        <v>0.9770208597183228</v>
+        <v>0.9764249324798584</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1705,87 +1717,87 @@
         <v>49</v>
       </c>
       <c r="B73" t="s">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="C73">
-        <v>0.976655900478363</v>
+        <v>0.9761146306991577</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B74" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="C74">
-        <v>0.9751503467559814</v>
+        <v>0.9760968089103699</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B75" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C75">
-        <v>0.9750582575798035</v>
+        <v>0.9759296178817749</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B76" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C76">
-        <v>0.9742245674133301</v>
+        <v>0.9747092723846436</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B77" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C77">
-        <v>0.9740671515464783</v>
+        <v>0.9740939736366272</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B78" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C78">
-        <v>0.9728206992149353</v>
+        <v>0.9740492701530457</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B79" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="C79">
-        <v>0.9723885655403137</v>
+        <v>0.9720410704612732</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B80" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="C80">
-        <v>0.9701880216598511</v>
+        <v>0.9716815948486328</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1793,10 +1805,10 @@
         <v>55</v>
       </c>
       <c r="B81" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C81">
-        <v>0.969947338104248</v>
+        <v>0.9700043797492981</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1804,560 +1816,560 @@
         <v>56</v>
       </c>
       <c r="B82" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C82">
-        <v>0.9687222242355347</v>
+        <v>0.9698283076286316</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B83" t="s">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="C83">
-        <v>0.9685788154602051</v>
+        <v>0.9691709280014038</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="B84" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C84">
-        <v>0.9685328006744385</v>
+        <v>0.9685410261154175</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B85" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C85">
-        <v>0.968198835849762</v>
+        <v>0.9684075117111206</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B86" t="s">
-        <v>147</v>
+        <v>109</v>
       </c>
       <c r="C86">
-        <v>0.9672279357910156</v>
+        <v>0.9679022431373596</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B87" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="C87">
-        <v>0.9671065807342529</v>
+        <v>0.9672678709030151</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B88" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C88">
-        <v>0.9667873382568359</v>
+        <v>0.9670426845550537</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B89" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C89">
-        <v>0.9667388796806335</v>
+        <v>0.9660590291023254</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B90" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C90">
-        <v>0.9656493663787842</v>
+        <v>0.9659414887428284</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B91" t="s">
-        <v>59</v>
+        <v>151</v>
       </c>
       <c r="C91">
-        <v>0.9643483757972717</v>
+        <v>0.9654607772827148</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="B92" t="s">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="C92">
-        <v>0.9632996916770935</v>
+        <v>0.9650437235832214</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B93" t="s">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="C93">
-        <v>0.9627619385719299</v>
+        <v>0.9628328084945679</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B94" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C94">
-        <v>0.9607439637184143</v>
+        <v>0.9619783163070679</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B95" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="C95">
-        <v>0.9607068300247192</v>
+        <v>0.9616881608963013</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
+        <v>65</v>
+      </c>
+      <c r="B96" t="s">
         <v>17</v>
       </c>
-      <c r="B96" t="s">
-        <v>62</v>
-      </c>
       <c r="C96">
-        <v>0.960639476776123</v>
+        <v>0.9616673588752747</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B97" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="C97">
-        <v>0.9604293704032898</v>
+        <v>0.9606937170028687</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B98" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C98">
-        <v>0.9603309631347656</v>
+        <v>0.9597853422164917</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B99" t="s">
-        <v>86</v>
+        <v>46</v>
       </c>
       <c r="C99">
-        <v>0.9598300457000732</v>
+        <v>0.9590603113174438</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B100" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="C100">
-        <v>0.9597798585891724</v>
+        <v>0.9585417509078979</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B101" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C101">
-        <v>0.9592618942260742</v>
+        <v>0.9585045576095581</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B102" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C102">
-        <v>0.9579138159751892</v>
+        <v>0.9577515125274658</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B103" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="C103">
-        <v>0.9572045207023621</v>
+        <v>0.9576665759086609</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B104" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C104">
-        <v>0.9569094181060791</v>
+        <v>0.9568030834197998</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="B105" t="s">
-        <v>138</v>
+        <v>71</v>
       </c>
       <c r="C105">
-        <v>0.9566400051116943</v>
+        <v>0.95647794008255</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B106" t="s">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="C106">
-        <v>0.9565322399139404</v>
+        <v>0.9555790424346924</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B107" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="C107">
-        <v>0.9564294815063477</v>
+        <v>0.9554505944252014</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B108" t="s">
-        <v>152</v>
+        <v>8</v>
       </c>
       <c r="C108">
-        <v>0.9560134410858154</v>
+        <v>0.9554505944252014</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B109" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C109">
-        <v>0.9559942483901978</v>
+        <v>0.9554465413093567</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B110" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
       <c r="C110">
-        <v>0.9551903605461121</v>
+        <v>0.9553574919700623</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B111" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="C111">
-        <v>0.9544087648391724</v>
+        <v>0.9552755355834961</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B112" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="C112">
-        <v>0.9543074369430542</v>
+        <v>0.9551327228546143</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B113" t="s">
-        <v>141</v>
+        <v>46</v>
       </c>
       <c r="C113">
-        <v>0.9539474248886108</v>
+        <v>0.954617977142334</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="B114" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C114">
-        <v>0.953670859336853</v>
+        <v>0.9545477628707886</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B115" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C115">
-        <v>0.9531172513961792</v>
+        <v>0.9542289972305298</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B116" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="C116">
-        <v>0.952884316444397</v>
+        <v>0.9537457227706909</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B117" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C117">
-        <v>0.9520552158355713</v>
+        <v>0.9525707364082336</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B118" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C118">
-        <v>0.9519935846328735</v>
+        <v>0.9524898529052734</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="B119" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="C119">
-        <v>0.9515572190284729</v>
+        <v>0.9522541761398315</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="B120" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="C120">
-        <v>0.9513835906982422</v>
+        <v>0.9520376920700073</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="B121" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="C121">
-        <v>0.9506207704544067</v>
+        <v>0.9509981274604797</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B122" t="s">
-        <v>116</v>
+        <v>144</v>
       </c>
       <c r="C122">
-        <v>0.9506207704544067</v>
+        <v>0.9506626725196838</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="B123" t="s">
-        <v>3</v>
+        <v>156</v>
       </c>
       <c r="C123">
-        <v>0.9506207704544067</v>
+        <v>0.9489069581031799</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="B124" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="C124">
-        <v>0.9505974054336548</v>
+        <v>0.9486199617385864</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B125" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="C125">
-        <v>0.9497231245040894</v>
+        <v>0.9483584761619568</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="B126" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C126">
-        <v>0.9488599300384521</v>
+        <v>0.9482194781303406</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B127" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C127">
-        <v>0.9481204152107239</v>
+        <v>0.9482194781303406</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="B128" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="C128">
-        <v>0.9480847716331482</v>
+        <v>0.9482194781303406</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B129" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="C129">
-        <v>0.9480006694793701</v>
+        <v>0.9475752115249634</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B130" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C130">
-        <v>0.9478151798248291</v>
+        <v>0.9473684430122375</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B131" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="C131">
-        <v>0.9469741582870483</v>
+        <v>0.9472088217735291</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B132" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="C132">
-        <v>0.9467373490333557</v>
+        <v>0.9471464157104492</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2365,538 +2377,538 @@
         <v>83</v>
       </c>
       <c r="B133" t="s">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="C133">
-        <v>0.9464123845100403</v>
+        <v>0.9466086030006409</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B134" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="C134">
-        <v>0.9459995627403259</v>
+        <v>0.9464499354362488</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B135" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C135">
-        <v>0.9457210302352905</v>
+        <v>0.9464071989059448</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="B136" t="s">
-        <v>84</v>
+        <v>162</v>
       </c>
       <c r="C136">
-        <v>0.9432022571563721</v>
+        <v>0.9461432099342346</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B137" t="s">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="C137">
-        <v>0.9432022571563721</v>
+        <v>0.9457248449325562</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B138" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C138">
-        <v>0.943179726600647</v>
+        <v>0.9453589916229248</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B139" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="C139">
-        <v>0.9417898058891296</v>
+        <v>0.944034218788147</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B140" t="s">
-        <v>159</v>
+        <v>3</v>
       </c>
       <c r="C140">
-        <v>0.9408267736434937</v>
+        <v>0.944034218788147</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="B141" t="s">
-        <v>144</v>
+        <v>48</v>
       </c>
       <c r="C141">
-        <v>0.9405184388160706</v>
+        <v>0.9417507648468018</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="B142" t="s">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="C142">
-        <v>0.9397597312927246</v>
+        <v>0.9416685700416565</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="B143" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="C143">
-        <v>0.939283549785614</v>
+        <v>0.9406670928001404</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="B144" t="s">
-        <v>55</v>
+        <v>163</v>
       </c>
       <c r="C144">
-        <v>0.9385219812393188</v>
+        <v>0.940327525138855</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B145" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="C145">
-        <v>0.9372051358222961</v>
+        <v>0.9397863149642944</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B146" t="s">
-        <v>102</v>
+        <v>164</v>
       </c>
       <c r="C146">
-        <v>0.9365588426589966</v>
+        <v>0.939339280128479</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="B147" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="C147">
-        <v>0.9359616041183472</v>
+        <v>0.9392277598381042</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B148" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C148">
-        <v>0.9348582625389099</v>
+        <v>0.9384914040565491</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B149" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="C149">
-        <v>0.9345137476921082</v>
+        <v>0.93831866979599</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="B150" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="C150">
-        <v>0.9341638684272766</v>
+        <v>0.9381013512611389</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="B151" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="C151">
-        <v>0.9339898824691772</v>
+        <v>0.9372329115867615</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B152" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C152">
-        <v>0.9335518479347229</v>
+        <v>0.9369395971298218</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="B153" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C153">
-        <v>0.9331322908401489</v>
+        <v>0.9341827630996704</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B154" t="s">
-        <v>161</v>
+        <v>56</v>
       </c>
       <c r="C154">
-        <v>0.9327329993247986</v>
+        <v>0.9337454438209534</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="B155" t="s">
-        <v>99</v>
+        <v>146</v>
       </c>
       <c r="C155">
-        <v>0.9317724704742432</v>
+        <v>0.9331281781196594</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="B156" t="s">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="C156">
-        <v>0.931527853012085</v>
+        <v>0.9318869113922119</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="B157" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C157">
-        <v>0.930280327796936</v>
+        <v>0.9314571619033813</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="B158" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C158">
-        <v>0.9302792549133301</v>
+        <v>0.9303538203239441</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B159" t="s">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="C159">
-        <v>0.9297897815704346</v>
+        <v>0.929984986782074</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B160" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C160">
-        <v>0.9288804531097412</v>
+        <v>0.929553747177124</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="B161" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="C161">
-        <v>0.9284942150115967</v>
+        <v>0.9286398887634277</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="B162" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C162">
-        <v>0.9284799695014954</v>
+        <v>0.9284123182296753</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B163" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C163">
-        <v>0.9269577860832214</v>
+        <v>0.928321361541748</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="B164" t="s">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="C164">
-        <v>0.9266467690467834</v>
+        <v>0.927972674369812</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="B165" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C165">
-        <v>0.9264784455299377</v>
+        <v>0.9278318881988525</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B166" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="C166">
-        <v>0.9263660907745361</v>
+        <v>0.9272919297218323</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="B167" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="C167">
-        <v>0.9251373410224915</v>
+        <v>0.9264185428619385</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="B168" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="C168">
-        <v>0.9245858788490295</v>
+        <v>0.9253439903259277</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="B169" t="s">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="C169">
-        <v>0.9236871600151062</v>
+        <v>0.9252426624298096</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="B170" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="C170">
-        <v>0.9217471480369568</v>
+        <v>0.9245722889900208</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B171" t="s">
-        <v>125</v>
+        <v>154</v>
       </c>
       <c r="C171">
-        <v>0.9214732646942139</v>
+        <v>0.9221445322036743</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="B172" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="C172">
-        <v>0.9212900400161743</v>
+        <v>0.9211317300796509</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B173" t="s">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="C173">
-        <v>0.9212508797645569</v>
+        <v>0.9210594296455383</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B174" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C174">
-        <v>0.921095609664917</v>
+        <v>0.9206877946853638</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="B175" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="C175">
-        <v>0.9209359884262085</v>
+        <v>0.920490562915802</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B176" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="C176">
-        <v>0.9199062585830688</v>
+        <v>0.9204642772674561</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B177" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="C177">
-        <v>0.9196110367774963</v>
+        <v>0.9204462766647339</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="B178" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C178">
-        <v>0.9191746711730957</v>
+        <v>0.919888973236084</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="B179" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="C179">
-        <v>0.9186884760856628</v>
+        <v>0.9193771481513977</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B180" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="C180">
-        <v>0.9184362292289734</v>
+        <v>0.9193615317344666</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B181" t="s">
-        <v>167</v>
+        <v>112</v>
       </c>
       <c r="C181">
-        <v>0.9183651208877563</v>
+        <v>0.9186854362487793</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2904,516 +2916,494 @@
         <v>102</v>
       </c>
       <c r="B182" t="s">
-        <v>168</v>
+        <v>101</v>
       </c>
       <c r="C182">
-        <v>0.91681307554245</v>
+        <v>0.9183241128921509</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B183" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C183">
-        <v>0.9162852764129639</v>
+        <v>0.9181058406829834</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B184" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="C184">
-        <v>0.9159876704216003</v>
+        <v>0.9167603850364685</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="B185" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="C185">
-        <v>0.915743887424469</v>
+        <v>0.9162724018096924</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B186" t="s">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="C186">
-        <v>0.9157138466835022</v>
+        <v>0.9159391522407532</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="B187" t="s">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="C187">
-        <v>0.9157066345214844</v>
+        <v>0.9155305624008179</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B188" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C188">
-        <v>0.9155084490776062</v>
+        <v>0.9152839779853821</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B189" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="C189">
-        <v>0.9154128432273865</v>
+        <v>0.9150447845458984</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="B190" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="C190">
-        <v>0.9148016571998596</v>
+        <v>0.9150175452232361</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="B191" t="s">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="C191">
-        <v>0.9143524169921875</v>
+        <v>0.9150091409683228</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B192" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C192">
-        <v>0.9142270088195801</v>
+        <v>0.9149951934814453</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="B193" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="C193">
-        <v>0.9141338467597961</v>
+        <v>0.9140992760658264</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B194" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C194">
-        <v>0.9139542579650879</v>
+        <v>0.9137179851531982</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B195" t="s">
-        <v>170</v>
+        <v>21</v>
       </c>
       <c r="C195">
-        <v>0.912054181098938</v>
+        <v>0.9135137796401978</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="B196" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C196">
-        <v>0.912003219127655</v>
+        <v>0.9135077595710754</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B197" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C197">
-        <v>0.9106691479682922</v>
+        <v>0.9127249121665955</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="B198" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="C198">
-        <v>0.9101639986038208</v>
+        <v>0.9123417139053345</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="B199" t="s">
-        <v>165</v>
+        <v>38</v>
       </c>
       <c r="C199">
-        <v>0.9101482033729553</v>
+        <v>0.9119489192962646</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B200" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C200">
-        <v>0.9094690084457397</v>
+        <v>0.9111093878746033</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B201" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C201">
-        <v>0.90931636095047</v>
+        <v>0.9108486175537109</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B202" t="s">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="C202">
-        <v>0.9092726111412048</v>
+        <v>0.9106394052505493</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B203" t="s">
-        <v>45</v>
+        <v>174</v>
       </c>
       <c r="C203">
-        <v>0.9083916544914246</v>
+        <v>0.9103749990463257</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="B204" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C204">
-        <v>0.9082313776016235</v>
+        <v>0.9102410078048706</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B205" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C205">
-        <v>0.9082313776016235</v>
+        <v>0.9093544483184814</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>8</v>
+        <v>110</v>
       </c>
       <c r="B206" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="C206">
-        <v>0.9082313776016235</v>
+        <v>0.9077596664428711</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B207" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C207">
-        <v>0.908216655254364</v>
+        <v>0.9073655009269714</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B208" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C208">
-        <v>0.9081156849861145</v>
+        <v>0.9072580337524414</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B209" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="C209">
-        <v>0.9079887866973877</v>
+        <v>0.9071720242500305</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B210" t="s">
-        <v>126</v>
+        <v>176</v>
       </c>
       <c r="C210">
-        <v>0.9076905846595764</v>
+        <v>0.9061989784240723</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="B211" t="s">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="C211">
-        <v>0.9071385860443115</v>
+        <v>0.9060408473014832</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B212" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C212">
-        <v>0.9055724143981934</v>
+        <v>0.9057596921920776</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="B213" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="C213">
-        <v>0.9054412841796875</v>
+        <v>0.9051861763000488</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="B214" t="s">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="C214">
-        <v>0.9046372175216675</v>
+        <v>0.9051861763000488</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="B215" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="C215">
-        <v>0.9045594930648804</v>
+        <v>0.9051861763000488</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B216" t="s">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="C216">
-        <v>0.9040526151657104</v>
+        <v>0.9048729538917542</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="B217" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C217">
-        <v>0.9039844274520874</v>
+        <v>0.9046860933303833</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="B218" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="C218">
-        <v>0.9033524394035339</v>
+        <v>0.9045690298080444</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="B219" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="C219">
-        <v>0.9025851488113403</v>
+        <v>0.9045073986053467</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="B220" t="s">
-        <v>96</v>
+        <v>179</v>
       </c>
       <c r="C220">
-        <v>0.9025088548660278</v>
+        <v>0.9041082262992859</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B221" t="s">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="C221">
-        <v>0.90242600440979</v>
+        <v>0.9029229283332825</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B222" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="C222">
-        <v>0.9023590087890625</v>
+        <v>0.902736485004425</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="B223" t="s">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="C223">
-        <v>0.9014028906822205</v>
+        <v>0.9020733833312988</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B224" t="s">
-        <v>66</v>
+        <v>180</v>
       </c>
       <c r="C224">
-        <v>0.9009832739830017</v>
+        <v>0.9011204838752747</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B225" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C225">
-        <v>0.9009515643119812</v>
+        <v>0.900952935218811</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="B226" t="s">
-        <v>176</v>
+        <v>55</v>
       </c>
       <c r="C226">
-        <v>0.9008705615997314</v>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
-      <c r="A227" t="s">
-        <v>103</v>
-      </c>
-      <c r="B227" t="s">
-        <v>111</v>
-      </c>
-      <c r="C227">
-        <v>0.9008522629737854</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
-      <c r="A228" t="s">
-        <v>115</v>
-      </c>
-      <c r="B228" t="s">
-        <v>37</v>
-      </c>
-      <c r="C228">
-        <v>0.9005650877952576</v>
+        <v>0.9006229639053345</v>
       </c>
     </row>
   </sheetData>
